--- a/nr-add-careteam-participant-roles/ig/StructureDefinition-cds-fr-patient.xlsx
+++ b/nr-add-careteam-participant-roles/ig/StructureDefinition-cds-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:56:40+00:00</t>
+    <t>2024-05-28T13:57:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-careteam-participant-roles/ig/StructureDefinition-cds-fr-patient.xlsx
+++ b/nr-add-careteam-participant-roles/ig/StructureDefinition-cds-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:57:14+00:00</t>
+    <t>2024-05-28T14:06:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-careteam-participant-roles/ig/StructureDefinition-cds-fr-patient.xlsx
+++ b/nr-add-careteam-participant-roles/ig/StructureDefinition-cds-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:06:34+00:00</t>
+    <t>2024-05-28T14:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-careteam-participant-roles/ig/StructureDefinition-cds-fr-patient.xlsx
+++ b/nr-add-careteam-participant-roles/ig/StructureDefinition-cds-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:07:04+00:00</t>
+    <t>2024-06-25T13:31:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-careteam-participant-roles/ig/StructureDefinition-cds-fr-patient.xlsx
+++ b/nr-add-careteam-participant-roles/ig/StructureDefinition-cds-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T13:31:21+00:00</t>
+    <t>2024-06-25T13:32:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-careteam-participant-roles/ig/StructureDefinition-cds-fr-patient.xlsx
+++ b/nr-add-careteam-participant-roles/ig/StructureDefinition-cds-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T13:32:08+00:00</t>
+    <t>2024-06-26T15:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-careteam-participant-roles/ig/StructureDefinition-cds-fr-patient.xlsx
+++ b/nr-add-careteam-participant-roles/ig/StructureDefinition-cds-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T15:38:12+00:00</t>
+    <t>2024-06-26T15:38:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
